--- a/biology/Zoologie/Anasaitis_milesae/Anasaitis_milesae.xlsx
+++ b/biology/Zoologie/Anasaitis_milesae/Anasaitis_milesae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anasaitis milesae est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anasaitis milesae est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des Caraïbes[1].
-Cette espèce a été découverte en Angleterre à Penryn[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des Caraïbes.
+Cette espèce a été découverte en Angleterre à Penryn.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,48 mm de long sur 0,98 mm et l'abdomen 1,35 mm de long sur 0,88 mm et la carapace de la femelle paratype mesure 1,63 mm de long sur 1,13 mm et l'abdomen 1,88 mm de long sur 1,25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,48 mm de long sur 0,98 mm et l'abdomen 1,35 mm de long sur 0,88 mm et la carapace de la femelle paratype mesure 1,63 mm de long sur 1,13 mm et l'abdomen 1,88 mm de long sur 1,25 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Logunov en 2024.
 </t>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Claire Miles (1958–2023)[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Claire Miles (1958–2023). 
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Logunov, 2024 : « Salticidae (Araneae) imported to the United Kingdom, with description of a new, non-native, species of Anasaitis Bryant, 1950. » Arachnology, vol. 19, no 7, p. 1036-1042.</t>
         </is>
